--- a/model/시도해볼 변수조합.xlsx
+++ b/model/시도해볼 변수조합.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="360" yWindow="90" windowWidth="10755" windowHeight="7845"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0212</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +70,32 @@
   </si>
   <si>
     <t>add + MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제출결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oversample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oversample 마지막 5개만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oversample 마지막 5개만+ outlier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_leaves = 255, min_child_samples = 40,
+max_depth = 8, learning_rate = 0.1,
+lambda_l2 = 3, lambda_l1 = 9,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +119,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,12 +160,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,20 +480,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,113 +502,180 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0.41610801419999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>0.4035510558</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>16.486986528300001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="3">
+        <v>1.6047749420568499E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0.39986654049999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0.63001340480000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0.40348783240000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="2">
+        <v>0.40001599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>0.3999808393</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.39862059685108098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.48620466600000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.31361240765574599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.4076887978</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.36790299999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.36790299999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.35442362830000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.34893893187903802</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -574,17 +690,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/model/시도해볼 변수조합.xlsx
+++ b/model/시도해볼 변수조합.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,26 @@
     <t>num_leaves = 255, min_child_samples = 40,
 max_depth = 8, learning_rate = 0.1,
 lambda_l2 = 3, lambda_l1 = 9,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiberID유지_300까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiberID유지_1200까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiberID유지 70%만 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +149,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808388"/>
+      <name val="NotoSansRegular"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -160,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +204,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,18 +512,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A18" sqref="A18:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +542,11 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,7 +560,7 @@
         <v>0.41610801419999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -536,7 +574,7 @@
         <v>0.4035510558</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -553,7 +591,7 @@
         <v>1.6047749420568499E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -567,7 +605,7 @@
         <v>0.39986654049999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -578,7 +616,7 @@
         <v>0.63001340480000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -595,7 +633,7 @@
         <v>0.40001599999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -603,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -620,13 +658,14 @@
         <v>0.39862059685108098</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="4">
         <v>0.48620466600000001</v>
       </c>
@@ -634,13 +673,14 @@
         <v>0.31361240765574599</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="4">
         <v>0.4076887978</v>
       </c>
@@ -648,34 +688,73 @@
         <v>0.36790299999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
+      <c r="C12" s="1"/>
       <c r="E12" s="2">
         <v>0.36790299999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="82.5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D13" s="2">
         <v>0.35442362830000002</v>
       </c>
       <c r="E13" s="2">
         <v>0.34893893187903802</v>
       </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="82.5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.3479559022</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="82.5">
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.36128512940000002</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -685,7 +764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model/시도해볼 변수조합.xlsx
+++ b/model/시도해볼 변수조합.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10755" windowHeight="7845"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10755" windowHeight="7845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>제출결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local결과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -116,6 +112,42 @@
   </si>
   <si>
     <t>fiberID유지 70%만 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_fraction = 0.85, learning_rate = 0.0032, max_depth= 5, num_leaves = 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃라이어 범위 : -60~60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃라이어 범위 : -40~40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_fraction = 0.85, learning_rate = 0.0015, max_depth= 8, num_leaves = 120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종제출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +200,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +259,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,8 +574,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD23"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -536,14 +595,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -663,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4">
@@ -678,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4">
@@ -693,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12" s="2">
@@ -705,10 +758,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>0.35442362830000002</v>
@@ -717,7 +770,7 @@
         <v>0.34893893187903802</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="82.5">
@@ -725,31 +778,54 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
         <v>0.3479559022</v>
       </c>
+      <c r="E14" s="2">
+        <v>0.34956100000000001</v>
+      </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="82.5">
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7">
         <v>0.36128512940000002</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="71.25" customHeight="1">
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.35729783459999997</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="49.5">
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" s="6"/>
+      <c r="D17" s="7">
+        <v>0.35479007639999999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -760,12 +836,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="43.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="49.5">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.3479559022</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.34956100000000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.5">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.35442362830000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.34893893187903802</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7">
+        <v>0.35479007639999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33">
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.35729783459999997</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
